--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_258.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_258.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,642 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08651633686148183</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G/5', 'G:min/5', 'D']]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(30.39, 34.95)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(83.505328, 91.934172)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>jaah_73</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02840136054421769</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj', 'D:maj']]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(8.96, 11.42), (8.34, 10.8)]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(44.86, 48.0), (43.66, 47.36)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:04:22.920000', '0:04:26.900000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1139817629179331</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'A:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(63.292358, 71.937575)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(59.331, 67.056)]</t>
+          <t>[('0:00:09.620000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3342175066312997</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[('0:00:33.100000', '0:00:49.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'A:7', 'D']]</t>
-        </is>
+          <t>isophonics_225</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.106312292358804</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
+          <t>[['A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.18, 53.36)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:40.049000', '0:00:48.539000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:12.020000', '0:00:25.140000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06020066889632107</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb/3', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4571428571428572</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(24.727, 27.6)]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.059795, 10.455351)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(19.98, 28.9)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32)]</t>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.233974358974359</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(37.94, 45.58)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(38.2, 42.24)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2803030303030303</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E/5', 'E', 'C#:min', 'E', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'C#:min', 'E', 'C#:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(62.670131, 78.14678)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(24.616991, 37.074497)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588)]</t>
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5535714285714286</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.66, 8.22)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(45.26, 57.58)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:08.340000', '0:00:11.680000'), ('0:00:07.840000', '0:00:11.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:04.605000', '0:00:21.095000'), ('0:00:03.509000', '0:00:18.764000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_38</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05974395448079658</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:hdim7', 'C:(3,5,b7,b9)', 'F:min7']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:hdim7', 'E:(3,5,b7,b9)', 'A:min7']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.73, 10.25)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(47.52, 52.93)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_33</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2232142857142857</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.252358, 5.805011)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(58.92, 66.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
